--- a/논리 데이터 모델링 참고.xlsx
+++ b/논리 데이터 모델링 참고.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzzzz\OneDrive - 경기과학기술대학교\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java2\teamproject-workspace\MaumgagymProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CEF04C-0B37-4204-920E-9A25619EF4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD152DD-6B0C-4E66-B5E9-2B5F730E6708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{2A184F4F-55DA-4D87-8CCE-16812E380CA2}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="147">
   <si>
     <t>글 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,106 +86,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2023.01.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.01.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음가짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 내용1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 내용2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 식별 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 내부 순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 깊이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 식별 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 글 수정일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.01.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.01.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.01.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.01.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 식별 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 삭제일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 번호(FK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>글 태그</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023.01.18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HBK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.01.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마음가짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 내용1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 내용2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 작성일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 작성자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹 식별 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹 내부 순서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹 깊이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정 식별 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최근 글 수정일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.01.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.01.03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.01.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.01.08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삭제 식별 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글 삭제일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글 번호(FK)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글 태그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>다짐 추천</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,14 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>리뷰 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,10 +270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>리뷰 번호(PK)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>글 번호(Forign Key)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -478,10 +462,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>글 식별번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>닉네임</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -526,10 +506,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원 로그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -554,10 +530,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그룹 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>댓글 상태( 1: 정상, 2:삭제)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -595,6 +567,66 @@
   </si>
   <si>
     <t>구매한 회원권 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 로그인 로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 로그인 로그 식별 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 식별 번호(PK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 상태( 1: 정상, 2:삭제)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 식별 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 댓글 수정일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 삭제일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 분류 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 태그 식별번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 태그 관계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -605,7 +637,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -718,6 +750,15 @@
       <b/>
       <sz val="15"/>
       <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -877,7 +918,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -949,6 +990,9 @@
     </xf>
     <xf numFmtId="176" fontId="11" fillId="12" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1274,10 +1318,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="C1:N57"/>
+  <dimension ref="C1:N77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1289,7 +1333,7 @@
     <col min="6" max="6" width="25.125" customWidth="1"/>
     <col min="7" max="7" width="53.125" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
-    <col min="9" max="9" width="32.25" customWidth="1"/>
+    <col min="9" max="9" width="61.125" customWidth="1"/>
     <col min="10" max="10" width="64.5" customWidth="1"/>
     <col min="11" max="11" width="33.625" customWidth="1"/>
     <col min="12" max="12" width="31.5" customWidth="1"/>
@@ -1316,16 +1360,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="3:14" ht="24" x14ac:dyDescent="0.3">
@@ -1342,15 +1383,12 @@
         <v>7</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J2" s="10">
+        <v>86</v>
+      </c>
+      <c r="I2" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1359,24 +1397,33 @@
         <v>5</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="3:14" ht="24" x14ac:dyDescent="0.3">
       <c r="C6" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>41</v>
+      <c r="K6" s="11" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="3:14" ht="24" x14ac:dyDescent="0.3">
@@ -1384,16 +1431,22 @@
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G7" s="10">
         <v>1</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1</v>
+      </c>
+      <c r="K7" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="3:14" ht="24" x14ac:dyDescent="0.3">
@@ -1401,16 +1454,22 @@
         <v>2</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G8" s="10">
         <v>2</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="J8" s="10">
+        <v>1</v>
+      </c>
+      <c r="K8" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="3:14" ht="24" x14ac:dyDescent="0.3">
@@ -1418,16 +1477,22 @@
         <v>3</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G9" s="10">
         <v>3</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="J9" s="10">
+        <v>1</v>
+      </c>
+      <c r="K9" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="3:14" ht="24" x14ac:dyDescent="0.3">
@@ -1435,16 +1500,22 @@
         <v>4</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G10" s="10">
         <v>4</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="J10" s="10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="10">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="3:14" ht="24" x14ac:dyDescent="0.3">
@@ -1452,10 +1523,16 @@
         <v>5</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="J11" s="10">
+        <v>2</v>
+      </c>
+      <c r="K11" s="10">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="3:14" ht="24" x14ac:dyDescent="0.3">
@@ -1463,13 +1540,13 @@
         <v>6</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1479,34 +1556,34 @@
         <v>7</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H13" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="M13" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="N13" s="13" t="s">
         <v>111</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="14" spans="3:14" ht="24" x14ac:dyDescent="0.3">
@@ -1514,34 +1591,34 @@
         <v>8</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G14" s="14">
         <v>1</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="J14" s="3">
         <v>1234</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="3:14" ht="24" x14ac:dyDescent="0.3">
@@ -1549,10 +1626,10 @@
         <v>9</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1563,13 +1640,13 @@
         <v>10</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -1579,19 +1656,22 @@
         <v>11</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>126</v>
+        <v>120</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="24" x14ac:dyDescent="0.3">
@@ -1599,19 +1679,22 @@
         <v>12</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G18" s="14">
         <v>1</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
+      </c>
+      <c r="J18" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="24" x14ac:dyDescent="0.3">
@@ -1619,10 +1702,10 @@
         <v>13</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1633,13 +1716,13 @@
         <v>14</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -1649,34 +1732,34 @@
         <v>15</v>
       </c>
       <c r="D21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="G21" s="16" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="3:14" ht="24" x14ac:dyDescent="0.3">
@@ -1684,25 +1767,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G22" s="7">
         <v>1</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7">
         <v>1.5</v>
@@ -1719,25 +1802,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G23" s="7">
         <v>2</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L23" s="7">
         <v>2.5</v>
@@ -1754,13 +1837,13 @@
         <v>3</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>9</v>
@@ -1777,15 +1860,15 @@
     </row>
     <row r="26" spans="3:14" ht="24" x14ac:dyDescent="0.3">
       <c r="C26" s="5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="3:14" ht="24" x14ac:dyDescent="0.3">
       <c r="C27" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>10</v>
@@ -1794,19 +1877,19 @@
         <v>3</v>
       </c>
       <c r="G27" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="18" t="s">
-        <v>17</v>
-      </c>
       <c r="I27" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="K27" s="18" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="L27" s="17" t="s">
         <v>0</v>
@@ -1826,13 +1909,13 @@
         <v>1</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>8</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K28" s="7">
         <v>1</v>
@@ -1855,13 +1938,13 @@
         <v>2</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K29" s="7">
         <v>1</v>
@@ -1892,7 +1975,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="3:14" ht="24" x14ac:dyDescent="0.3">
@@ -1900,16 +1983,16 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="G32" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H32" s="15" t="s">
         <v>0</v>
       </c>
       <c r="I32" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="15" t="s">
         <v>23</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="33" spans="3:14" ht="24" x14ac:dyDescent="0.3">
@@ -1965,7 +2048,7 @@
     </row>
     <row r="36" spans="3:14" ht="24" x14ac:dyDescent="0.3">
       <c r="C36" s="5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -1984,10 +2067,10 @@
     </row>
     <row r="37" spans="3:14" ht="24" x14ac:dyDescent="0.3">
       <c r="C37" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="21" t="s">
         <v>31</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>32</v>
       </c>
       <c r="E37" s="21" t="s">
         <v>0</v>
@@ -1998,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E38" s="2">
         <v>1</v>
@@ -2009,13 +2092,13 @@
         <v>2</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E39" s="2">
         <v>2</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="3:14" ht="24" x14ac:dyDescent="0.3">
@@ -2023,28 +2106,28 @@
         <v>3</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E40" s="2">
         <v>3</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="3:14" ht="24" x14ac:dyDescent="0.3">
@@ -2052,7 +2135,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E41" s="2">
         <v>4</v>
@@ -2061,16 +2144,16 @@
         <v>1</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L41" s="10">
         <v>1</v>
@@ -2081,7 +2164,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E42" s="2">
         <v>3</v>
@@ -2090,16 +2173,16 @@
         <v>2</v>
       </c>
       <c r="H42" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I42" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="I42" s="10" t="s">
-        <v>84</v>
-      </c>
       <c r="J42" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L42" s="10">
         <v>2</v>
@@ -2110,7 +2193,7 @@
         <v>6</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E43" s="2">
         <v>2</v>
@@ -2119,16 +2202,16 @@
         <v>3</v>
       </c>
       <c r="H43" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J43" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I43" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>86</v>
-      </c>
       <c r="K43" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L43" s="10">
         <v>3</v>
@@ -2139,7 +2222,7 @@
         <v>7</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E44" s="2">
         <v>1</v>
@@ -2150,7 +2233,7 @@
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="G45" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="3:14" ht="24" x14ac:dyDescent="0.3">
@@ -2158,33 +2241,33 @@
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="G46" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L46" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="I46" s="13" t="s">
+      <c r="M46" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="J46" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="K46" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="L46" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="M46" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="N46" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="3:14" ht="24" x14ac:dyDescent="0.3">
       <c r="C47" s="5" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -2192,20 +2275,20 @@
         <v>1</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N47" s="10">
         <v>1</v>
@@ -2213,10 +2296,10 @@
     </row>
     <row r="48" spans="3:14" ht="24" x14ac:dyDescent="0.3">
       <c r="C48" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="22" t="s">
         <v>25</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>26</v>
       </c>
       <c r="E48" s="22" t="s">
         <v>0</v>
@@ -2227,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
@@ -2238,7 +2321,7 @@
         <v>2</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E50" s="2">
         <v>2</v>
@@ -2249,13 +2332,13 @@
         <v>3</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E51" s="2">
         <v>3</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="3:10" ht="24" x14ac:dyDescent="0.3">
@@ -2263,22 +2346,22 @@
         <v>4</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E52" s="2">
         <v>4</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I52" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="I52" s="19" t="s">
-        <v>43</v>
-      </c>
       <c r="J52" s="19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="3:10" ht="24" x14ac:dyDescent="0.3">
@@ -2286,7 +2369,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E53" s="2">
         <v>3</v>
@@ -2295,10 +2378,10 @@
         <v>1</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J53" s="10">
         <v>1</v>
@@ -2309,7 +2392,7 @@
         <v>6</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E54" s="2">
         <v>2</v>
@@ -2318,10 +2401,10 @@
         <v>2</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J54" s="10">
         <v>1</v>
@@ -2332,7 +2415,7 @@
         <v>7</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E55" s="2">
         <v>1</v>
@@ -2340,7 +2423,207 @@
     </row>
     <row r="57" spans="3:10" ht="24" x14ac:dyDescent="0.3">
       <c r="G57" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="C58" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+    </row>
+    <row r="59" spans="3:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="C59" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="C61" s="2">
+        <v>2</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="3:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="C62" s="2">
+        <v>3</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="C63" s="2">
+        <v>4</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="C64" s="2">
+        <v>5</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="C65" s="2">
+        <v>6</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="C66" s="2">
+        <v>7</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+    </row>
+    <row r="68" spans="3:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+    </row>
+    <row r="69" spans="3:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="C69" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+    </row>
+    <row r="70" spans="3:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="C70" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="C72" s="2">
+        <v>2</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="C73" s="2">
+        <v>3</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="C74" s="2">
+        <v>4</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E74" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="C75" s="2">
+        <v>5</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="C76" s="2">
+        <v>6</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="C77" s="2">
+        <v>7</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/논리 데이터 모델링 참고.xlsx
+++ b/논리 데이터 모델링 참고.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java2\teamproject-workspace\MaumgagymProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD152DD-6B0C-4E66-B5E9-2B5F730E6708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FED8390-4280-4A61-9338-FB021A4D4D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{2A184F4F-55DA-4D87-8CCE-16812E380CA2}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{2A184F4F-55DA-4D87-8CCE-16812E380CA2}"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="146">
   <si>
     <t>글 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,10 +175,6 @@
   </si>
   <si>
     <t>공지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글 태그</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1320,8 +1316,8 @@
   </sheetPr>
   <dimension ref="C1:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1363,10 +1359,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="3:14" ht="24" x14ac:dyDescent="0.3">
@@ -1383,10 +1379,10 @@
         <v>7</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I2" s="10">
         <v>1</v>
@@ -1396,34 +1392,32 @@
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="G5" s="5"/>
       <c r="J5" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="3:14" ht="24" x14ac:dyDescent="0.3">
       <c r="C6" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>145</v>
-      </c>
       <c r="H6" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="3:14" ht="24" x14ac:dyDescent="0.3">
@@ -1431,16 +1425,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G7" s="10">
         <v>1</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J7" s="10">
         <v>1</v>
@@ -1454,16 +1448,16 @@
         <v>2</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G8" s="10">
         <v>2</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J8" s="10">
         <v>1</v>
@@ -1477,16 +1471,16 @@
         <v>3</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9" s="10">
         <v>3</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J9" s="10">
         <v>1</v>
@@ -1500,16 +1494,16 @@
         <v>4</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G10" s="10">
         <v>4</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10" s="10">
         <v>1</v>
@@ -1523,10 +1517,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J11" s="10">
         <v>2</v>
@@ -1540,13 +1534,13 @@
         <v>6</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1556,34 +1550,34 @@
         <v>7</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H13" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="J13" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="K13" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="L13" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="M13" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="M13" s="13" t="s">
+      <c r="N13" s="13" t="s">
         <v>110</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="14" spans="3:14" ht="24" x14ac:dyDescent="0.3">
@@ -1591,10 +1585,10 @@
         <v>8</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G14" s="14">
         <v>1</v>
@@ -1603,7 +1597,7 @@
         <v>14</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J14" s="3">
         <v>1234</v>
@@ -1612,13 +1606,13 @@
         <v>14</v>
       </c>
       <c r="L14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="15" spans="3:14" ht="24" x14ac:dyDescent="0.3">
@@ -1626,10 +1620,10 @@
         <v>9</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1640,13 +1634,13 @@
         <v>10</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -1656,22 +1650,22 @@
         <v>11</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H17" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="I17" s="13" t="s">
-        <v>120</v>
-      </c>
       <c r="J17" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="24" x14ac:dyDescent="0.3">
@@ -1679,19 +1673,19 @@
         <v>12</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G18" s="14">
         <v>1</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J18" s="14">
         <v>1</v>
@@ -1719,10 +1713,10 @@
         <v>33</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -1732,34 +1726,34 @@
         <v>15</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G21" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M21" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="H21" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L21" s="16" t="s">
+      <c r="N21" s="17" t="s">
         <v>56</v>
-      </c>
-      <c r="M21" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="N21" s="17" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="22" spans="3:14" ht="24" x14ac:dyDescent="0.3">
@@ -1767,19 +1761,19 @@
         <v>16</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G22" s="7">
         <v>1</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>8</v>
@@ -1802,19 +1796,19 @@
         <v>17</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G23" s="7">
         <v>2</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>11</v>
@@ -1837,10 +1831,10 @@
         <v>3</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>13</v>
@@ -1860,10 +1854,10 @@
     </row>
     <row r="26" spans="3:14" ht="24" x14ac:dyDescent="0.3">
       <c r="C26" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="3:14" ht="24" x14ac:dyDescent="0.3">
@@ -1877,7 +1871,7 @@
         <v>3</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H27" s="18" t="s">
         <v>16</v>
@@ -1889,7 +1883,7 @@
         <v>20</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L27" s="17" t="s">
         <v>0</v>
@@ -1975,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="3:14" ht="24" x14ac:dyDescent="0.3">
@@ -2048,7 +2042,7 @@
     </row>
     <row r="36" spans="3:14" ht="24" x14ac:dyDescent="0.3">
       <c r="C36" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -2098,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="3:14" ht="24" x14ac:dyDescent="0.3">
@@ -2112,22 +2106,22 @@
         <v>3</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="J40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="L40" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="3:14" ht="24" x14ac:dyDescent="0.3">
@@ -2144,16 +2138,16 @@
         <v>1</v>
       </c>
       <c r="H41" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I41" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="I41" s="10" t="s">
+      <c r="J41" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="J41" s="10" t="s">
-        <v>77</v>
-      </c>
       <c r="K41" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L41" s="10">
         <v>1</v>
@@ -2173,16 +2167,16 @@
         <v>2</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L42" s="10">
         <v>2</v>
@@ -2202,16 +2196,16 @@
         <v>3</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I43" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J43" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="J43" s="10" t="s">
+      <c r="K43" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="K43" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="L43" s="10">
         <v>3</v>
@@ -2233,7 +2227,7 @@
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="G45" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="3:14" ht="24" x14ac:dyDescent="0.3">
@@ -2241,25 +2235,25 @@
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="G46" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H46" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="I46" s="13" t="s">
+      <c r="J46" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="J46" s="13" t="s">
+      <c r="K46" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="K46" s="13" t="s">
+      <c r="L46" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="L46" s="13" t="s">
+      <c r="M46" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="M46" s="13" t="s">
-        <v>63</v>
       </c>
       <c r="N46" s="13" t="s">
         <v>32</v>
@@ -2267,7 +2261,7 @@
     </row>
     <row r="47" spans="3:14" ht="24" x14ac:dyDescent="0.3">
       <c r="C47" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -2275,20 +2269,20 @@
         <v>1</v>
       </c>
       <c r="H47" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J47" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I47" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J47" s="10" t="s">
+      <c r="K47" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="K47" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N47" s="10">
         <v>1</v>
@@ -2338,7 +2332,7 @@
         <v>3</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="3:10" ht="24" x14ac:dyDescent="0.3">
@@ -2352,16 +2346,16 @@
         <v>4</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H52" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I52" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I52" s="19" t="s">
-        <v>42</v>
-      </c>
       <c r="J52" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="3:10" ht="24" x14ac:dyDescent="0.3">
@@ -2378,10 +2372,10 @@
         <v>1</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J53" s="10">
         <v>1</v>
@@ -2401,10 +2395,10 @@
         <v>2</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J54" s="10">
         <v>1</v>
@@ -2423,12 +2417,12 @@
     </row>
     <row r="57" spans="3:10" ht="24" x14ac:dyDescent="0.3">
       <c r="G57" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="3:10" ht="24" x14ac:dyDescent="0.3">
       <c r="C58" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
@@ -2438,7 +2432,7 @@
         <v>30</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E59" s="21" t="s">
         <v>15</v>
@@ -2533,7 +2527,7 @@
     </row>
     <row r="69" spans="3:5" ht="24" x14ac:dyDescent="0.3">
       <c r="C69" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
@@ -2543,7 +2537,7 @@
         <v>24</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E70" s="22" t="s">
         <v>15</v>
